--- a/MedicalLink/Templates/BC_117_MoYCBangPPKinhHienVi.xlsx
+++ b/MedicalLink/Templates/BC_117_MoYCBangPPKinhHienVi.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
   <si>
     <t>STT</t>
   </si>
@@ -77,9 +77,6 @@
     <t>Ghi chú</t>
   </si>
   <si>
-    <t>Thành tiền</t>
-  </si>
-  <si>
     <t>(Theo QĐ số 151 /QĐ-BVVT ngày 24 Tháng 03 Năm 2015)</t>
   </si>
   <si>
@@ -198,6 +195,18 @@
   </si>
   <si>
     <t>&amp;=[DATA1].THUCLINH</t>
+  </si>
+  <si>
+    <t>Thành tiền (800.000)</t>
+  </si>
+  <si>
+    <t>Thành tiền (500.000)</t>
+  </si>
+  <si>
+    <t>Thành tiền (350.000)</t>
+  </si>
+  <si>
+    <t>Thành tiền (175.000)</t>
   </si>
 </sst>
 </file>
@@ -209,7 +218,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,6 +285,17 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -378,7 +398,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -427,15 +447,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -457,6 +468,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -484,20 +507,23 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -505,29 +531,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <b/>
@@ -845,8 +849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="E1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -871,195 +875,195 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
       <c r="D1" s="16"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
     </row>
     <row r="2" spans="1:17" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
+      <c r="E2" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
     </row>
     <row r="3" spans="1:17" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
       <c r="D3" s="19"/>
-      <c r="E3" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
+      <c r="E3" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="18"/>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-    </row>
-    <row r="6" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+    </row>
+    <row r="6" spans="1:17" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="D6" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="E6" s="30"/>
+      <c r="F6" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="42"/>
-      <c r="F6" s="41" t="s">
+      <c r="G6" s="30"/>
+      <c r="H6" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="42"/>
-      <c r="H6" s="41" t="s">
+      <c r="I6" s="30"/>
+      <c r="J6" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="42"/>
-      <c r="J6" s="41" t="s">
+      <c r="K6" s="30"/>
+      <c r="L6" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="42"/>
-      <c r="L6" s="41" t="s">
+      <c r="M6" s="30"/>
+      <c r="N6" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="42"/>
-      <c r="N6" s="39" t="s">
+      <c r="O6" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="P6" s="27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="4" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="L7" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+    </row>
+    <row r="8" spans="1:17" s="45" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A8" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="O6" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="P6" s="39" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="L7" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="M7" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-    </row>
-    <row r="8" spans="1:17" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
+      <c r="B8" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="C8" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="D8" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="E8" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="F8" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="43" t="s">
+      <c r="G8" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="43" t="s">
+      <c r="H8" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="43" t="s">
+      <c r="I8" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="43" t="s">
+      <c r="J8" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="J8" s="43" t="s">
+      <c r="K8" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="K8" s="43" t="s">
+      <c r="L8" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="L8" s="43" t="s">
+      <c r="M8" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="M8" s="43" t="s">
+      <c r="N8" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="N8" s="43" t="s">
+      <c r="O8" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="O8" s="43" t="s">
+      <c r="P8" s="43" t="s">
         <v>42</v>
-      </c>
-      <c r="P8" s="43" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:17" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -1067,59 +1071,59 @@
         <v>2</v>
       </c>
       <c r="B9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="23" t="s">
+      <c r="E9" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="F9" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="G9" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="H9" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="I9" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="J9" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="J9" s="15" t="s">
+      <c r="K9" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="L9" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="L9" s="15" t="s">
+      <c r="M9" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="M9" s="15" t="s">
+      <c r="N9" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="N9" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="O9" s="24"/>
-      <c r="P9" s="26"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="23"/>
     </row>
     <row r="10" spans="1:17" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
       <c r="D10" s="14">
         <f>SUM(D9:D9)</f>
         <v>0</v>
       </c>
       <c r="E10" s="14">
-        <f t="shared" ref="E10:N10" si="0">SUM(E9:E9)</f>
+        <f t="shared" ref="E10:K10" si="0">SUM(E9:E9)</f>
         <v>0</v>
       </c>
       <c r="F10" s="14">
@@ -1158,8 +1162,8 @@
         <f>SUM(N9:N9)</f>
         <v>0</v>
       </c>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
     </row>
     <row r="12" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="str">
@@ -1169,14 +1173,14 @@
       <c r="D12" s="11"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
-      <c r="K12" s="30" t="s">
+      <c r="K12" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
       <c r="Q12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1219,12 +1223,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
     <mergeCell ref="K12:N12"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
@@ -1239,19 +1237,25 @@
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="B6:B7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
   </mergeCells>
   <conditionalFormatting sqref="A10:B10 D10:K10 N9:O10 A9:K9">
-    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="6" stopIfTrue="1">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P9:P10">
-    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L9:M10">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>#REF!=1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/MedicalLink/Templates/BC_117_MoYCBangPPKinhHienVi.xlsx
+++ b/MedicalLink/Templates/BC_117_MoYCBangPPKinhHienVi.xlsx
@@ -213,10 +213,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -398,7 +399,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -468,6 +469,51 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -480,50 +526,11 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -850,7 +857,7 @@
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B7"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -875,194 +882,194 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
       <c r="D1" s="16"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:17" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
       <c r="L2" s="24"/>
       <c r="M2" s="24"/>
     </row>
     <row r="3" spans="1:17" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
       <c r="D3" s="19"/>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
       <c r="L3" s="26"/>
       <c r="M3" s="26"/>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="18"/>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
       <c r="L4" s="25"/>
       <c r="M4" s="25"/>
     </row>
     <row r="6" spans="1:17" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="29" t="s">
+      <c r="E6" s="45"/>
+      <c r="F6" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="29" t="s">
+      <c r="G6" s="45"/>
+      <c r="H6" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="30"/>
-      <c r="J6" s="29" t="s">
+      <c r="I6" s="45"/>
+      <c r="J6" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="29" t="s">
+      <c r="K6" s="45"/>
+      <c r="L6" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="30"/>
-      <c r="N6" s="27" t="s">
+      <c r="M6" s="45"/>
+      <c r="N6" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="O6" s="27" t="s">
+      <c r="O6" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="P6" s="27" t="s">
+      <c r="P6" s="42" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="4" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="40" t="s">
+      <c r="A7" s="43"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="42" t="s">
+      <c r="F7" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="41" t="s">
+      <c r="G7" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="42" t="s">
+      <c r="H7" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="41" t="s">
+      <c r="I7" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="42" t="s">
+      <c r="J7" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="41" t="s">
+      <c r="K7" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="L7" s="42" t="s">
+      <c r="L7" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="41" t="s">
+      <c r="M7" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-    </row>
-    <row r="8" spans="1:17" s="45" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+    </row>
+    <row r="8" spans="1:17" s="32" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="E8" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="43" t="s">
+      <c r="F8" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="43" t="s">
+      <c r="G8" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="43" t="s">
+      <c r="H8" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="43" t="s">
+      <c r="I8" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="43" t="s">
+      <c r="J8" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="K8" s="43" t="s">
+      <c r="K8" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="L8" s="43" t="s">
+      <c r="L8" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="M8" s="43" t="s">
+      <c r="M8" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="N8" s="44" t="s">
+      <c r="N8" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="O8" s="43" t="s">
+      <c r="O8" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="P8" s="43" t="s">
+      <c r="P8" s="30" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1082,7 +1089,7 @@
       <c r="E9" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="46" t="s">
         <v>46</v>
       </c>
       <c r="G9" s="15" t="s">
@@ -1113,11 +1120,11 @@
       <c r="P9" s="23"/>
     </row>
     <row r="10" spans="1:17" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
       <c r="D10" s="14">
         <f>SUM(D9:D9)</f>
         <v>0</v>
@@ -1126,7 +1133,7 @@
         <f t="shared" ref="E10:K10" si="0">SUM(E9:E9)</f>
         <v>0</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="47">
         <f>SUM(F9:F9)</f>
         <v>0</v>
       </c>
@@ -1173,12 +1180,12 @@
       <c r="D12" s="11"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
-      <c r="K12" s="31" t="s">
+      <c r="K12" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
       <c r="Q12" s="1" t="s">
         <v>17</v>
       </c>
@@ -1223,6 +1230,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
     <mergeCell ref="K12:N12"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
@@ -1237,12 +1250,6 @@
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="B6:B7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
   </mergeCells>
   <conditionalFormatting sqref="A10:B10 D10:K10 N9:O10 A9:K9">
     <cfRule type="expression" dxfId="2" priority="6" stopIfTrue="1">

--- a/MedicalLink/Templates/BC_117_MoYCBangPPKinhHienVi.xlsx
+++ b/MedicalLink/Templates/BC_117_MoYCBangPPKinhHienVi.xlsx
@@ -487,6 +487,24 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -513,24 +531,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -856,139 +856,139 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="D1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.42578125" style="3" customWidth="1"/>
     <col min="2" max="2" width="25" style="3" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.28515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" style="1" customWidth="1"/>
-    <col min="13" max="14" width="18.28515625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.42578125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="16.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9" style="3" customWidth="1"/>
+    <col min="5" max="5" width="16" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="1" customWidth="1"/>
+    <col min="13" max="14" width="16" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" customWidth="1"/>
     <col min="17" max="17" width="8.85546875" style="1" hidden="1" customWidth="1"/>
     <col min="18" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
       <c r="D1" s="16"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
     </row>
     <row r="2" spans="1:17" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
       <c r="L2" s="24"/>
       <c r="M2" s="24"/>
     </row>
     <row r="3" spans="1:17" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
       <c r="D3" s="19"/>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
       <c r="L3" s="26"/>
       <c r="M3" s="26"/>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="18"/>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
       <c r="L4" s="25"/>
       <c r="M4" s="25"/>
     </row>
     <row r="6" spans="1:17" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="45"/>
-      <c r="F6" s="44" t="s">
+      <c r="E6" s="38"/>
+      <c r="F6" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="45"/>
-      <c r="H6" s="44" t="s">
+      <c r="G6" s="38"/>
+      <c r="H6" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="45"/>
-      <c r="J6" s="44" t="s">
+      <c r="I6" s="38"/>
+      <c r="J6" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="45"/>
-      <c r="L6" s="44" t="s">
+      <c r="K6" s="38"/>
+      <c r="L6" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="45"/>
-      <c r="N6" s="42" t="s">
+      <c r="M6" s="38"/>
+      <c r="N6" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="O6" s="42" t="s">
+      <c r="O6" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="P6" s="42" t="s">
+      <c r="P6" s="35" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="4" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
       <c r="D7" s="27" t="s">
         <v>13</v>
       </c>
@@ -1019,9 +1019,9 @@
       <c r="M7" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="N7" s="43"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="43"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
     </row>
     <row r="8" spans="1:17" s="32" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
@@ -1089,7 +1089,7 @@
       <c r="E9" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="46" t="s">
+      <c r="F9" s="33" t="s">
         <v>46</v>
       </c>
       <c r="G9" s="15" t="s">
@@ -1120,11 +1120,11 @@
       <c r="P9" s="23"/>
     </row>
     <row r="10" spans="1:17" s="13" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
       <c r="D10" s="14">
         <f>SUM(D9:D9)</f>
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <f t="shared" ref="E10:K10" si="0">SUM(E9:E9)</f>
         <v>0</v>
       </c>
-      <c r="F10" s="47">
+      <c r="F10" s="34">
         <f>SUM(F9:F9)</f>
         <v>0</v>
       </c>
@@ -1180,12 +1180,12 @@
       <c r="D12" s="11"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
-      <c r="K12" s="33" t="s">
+      <c r="K12" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
       <c r="Q12" s="1" t="s">
         <v>17</v>
       </c>
@@ -1230,12 +1230,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
     <mergeCell ref="K12:N12"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:C2"/>
@@ -1250,6 +1244,12 @@
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="B6:B7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
   </mergeCells>
   <conditionalFormatting sqref="A10:B10 D10:K10 N9:O10 A9:K9">
     <cfRule type="expression" dxfId="2" priority="6" stopIfTrue="1">
@@ -1268,7 +1268,7 @@
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="60" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;CTrang &amp;P</oddFooter>
   </headerFooter>
